--- a/TestData/Web_POS/Promo/login_test_data.xlsx
+++ b/TestData/Web_POS/Promo/login_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Ginesys_Zwing_Automation\Ginesys_Zwing_Automation\TestData\POS\Promo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Promo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>AnandArya</t>
+  </si>
+  <si>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -181,8 +187,25 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <right style="medium">
         <color rgb="FF2B579A"/>
@@ -195,16 +218,19 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -426,7 +452,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -534,17 +560,17 @@
       <c r="F2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -553,39 +579,39 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="3">
+        <v>30</v>
+      </c>
+      <c r="O2" s="4">
         <v>37348</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>30</v>
+      <c r="P2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="R2" s="1">
         <v>50</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -594,22 +620,22 @@
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
       </c>
-      <c r="G3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>500</v>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -618,39 +644,39 @@
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="3">
+        <v>30</v>
+      </c>
+      <c r="O3" s="4">
         <v>37348</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>30</v>
+      <c r="P3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="R3" s="1">
         <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -659,22 +685,22 @@
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
       </c>
-      <c r="G4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="1">
-        <v>500</v>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -683,35 +709,34 @@
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4">
         <v>37348</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>30</v>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="R4" s="1">
         <v>50</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -720,12 +745,11 @@
       <c r="I5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
     <row r="6" ht="27" customHeight="1">
-      <c r="A6"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -734,12 +758,11 @@
       <c r="I6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
     <row r="7" ht="44.25" customHeight="1">
-      <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -748,9 +771,9 @@
       <c r="I7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
     </row>
     <row r="8" ht="31.5" customHeight="1">
       <c r="B8" s="2"/>
@@ -760,9 +783,9 @@
       <c r="F8" s="2"/>
       <c r="I8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" s="2"/>
@@ -773,9 +796,9 @@
       <c r="I9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
     </row>
     <row r="10" ht="33" customHeight="1">
       <c r="B10" s="2"/>
@@ -786,9 +809,9 @@
       <c r="I10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" ht="14.25">
       <c r="B11" s="2"/>
@@ -799,9 +822,9 @@
       <c r="I11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
     </row>
     <row r="12" ht="14.25">
       <c r="B12" s="2"/>
